--- a/documentation/database.xlsx
+++ b/documentation/database.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinod\financeapp\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\production\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556CC0F9-500F-4E91-A016-9EF0F3AA66E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="owner" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>own_id</t>
   </si>
@@ -102,12 +103,15 @@
   </si>
   <si>
     <t>own_payment_gateway</t>
+  </si>
+  <si>
+    <t>own_mname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,36 +422,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" customWidth="1"/>
+    <col min="20" max="20" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -509,7 +513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>

--- a/documentation/database.xlsx
+++ b/documentation/database.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\production\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556CC0F9-500F-4E91-A016-9EF0F3AA66E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C308012-2D3F-4DAC-9FB0-92AD49D9EEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="owner" sheetId="1" r:id="rId1"/>
+    <sheet name="admin" sheetId="2" r:id="rId1"/>
+    <sheet name="owner" sheetId="1" r:id="rId2"/>
+    <sheet name="user" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>own_id</t>
   </si>
@@ -106,6 +108,180 @@
   </si>
   <si>
     <t>own_mname</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>admin_fname</t>
+  </si>
+  <si>
+    <t>admin_lname</t>
+  </si>
+  <si>
+    <t>admin_email</t>
+  </si>
+  <si>
+    <t>admin_password</t>
+  </si>
+  <si>
+    <t>admin_phone</t>
+  </si>
+  <si>
+    <t>admin_add_date</t>
+  </si>
+  <si>
+    <t>admin_last_login</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_own_id</t>
+  </si>
+  <si>
+    <t>user_add_date</t>
+  </si>
+  <si>
+    <t>user_first_name</t>
+  </si>
+  <si>
+    <t>user_last_name</t>
+  </si>
+  <si>
+    <t>user_middle_name</t>
+  </si>
+  <si>
+    <t>user_type</t>
+  </si>
+  <si>
+    <t>user_firm_id</t>
+  </si>
+  <si>
+    <t>user_pre_id</t>
+  </si>
+  <si>
+    <t>user_name_prefix</t>
+  </si>
+  <si>
+    <t>user_mother_name</t>
+  </si>
+  <si>
+    <t>user_gender</t>
+  </si>
+  <si>
+    <t>user_cast</t>
+  </si>
+  <si>
+    <t>user_marital_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_max_qualification </t>
+  </si>
+  <si>
+    <t>user_birth_date</t>
+  </si>
+  <si>
+    <t>user_anniversary_date</t>
+  </si>
+  <si>
+    <t>user_pan_no</t>
+  </si>
+  <si>
+    <t>user_gstin_no</t>
+  </si>
+  <si>
+    <t>user_tax_no</t>
+  </si>
+  <si>
+    <t>user_adhaar_no</t>
+  </si>
+  <si>
+    <t>user_bank_name</t>
+  </si>
+  <si>
+    <t>user_bank_acc_name</t>
+  </si>
+  <si>
+    <t>user_bank_acc_no</t>
+  </si>
+  <si>
+    <t>user_bank_ifsc_code</t>
+  </si>
+  <si>
+    <t>user_occupation</t>
+  </si>
+  <si>
+    <t>user_income</t>
+  </si>
+  <si>
+    <t>user_nominee_name</t>
+  </si>
+  <si>
+    <t>user_nominee_relation</t>
+  </si>
+  <si>
+    <t>user_designation</t>
+  </si>
+  <si>
+    <t>user_google_upi</t>
+  </si>
+  <si>
+    <t>user_other_upi</t>
+  </si>
+  <si>
+    <t>user_payment_mode</t>
+  </si>
+  <si>
+    <t>user_shop_name</t>
+  </si>
+  <si>
+    <t>user_office_address</t>
+  </si>
+  <si>
+    <t>user_permanent_address</t>
+  </si>
+  <si>
+    <t>user_current_address</t>
+  </si>
+  <si>
+    <t>user_village</t>
+  </si>
+  <si>
+    <t>user_ward_no</t>
+  </si>
+  <si>
+    <t>user_tahasil</t>
+  </si>
+  <si>
+    <t>user_city</t>
+  </si>
+  <si>
+    <t>user_country</t>
+  </si>
+  <si>
+    <t>user_pincode</t>
+  </si>
+  <si>
+    <t>user_state</t>
+  </si>
+  <si>
+    <t>user_other_info</t>
+  </si>
+  <si>
+    <t>user_sign</t>
+  </si>
+  <si>
+    <t>user_img_id</t>
+  </si>
+  <si>
+    <t>user_pan_img_id</t>
+  </si>
+  <si>
+    <t>user_adhaar_front_img_id</t>
+  </si>
+  <si>
+    <t>user_adhaar_back_img_id</t>
   </si>
 </sst>
 </file>
@@ -422,11 +598,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAFE88E-6F2D-42B5-AECC-960336E68204}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,4 +831,220 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2B6CC1-653C-459D-AC0B-7E8FCCF26223}">
+  <dimension ref="A1:AX1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection sqref="A1:AX1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" customWidth="1"/>
+    <col min="15" max="15" width="21.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" customWidth="1"/>
+    <col min="17" max="17" width="19.1796875" customWidth="1"/>
+    <col min="18" max="18" width="13.36328125" customWidth="1"/>
+    <col min="19" max="19" width="13.90625" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" customWidth="1"/>
+    <col min="22" max="22" width="17.26953125" customWidth="1"/>
+    <col min="23" max="23" width="18.7265625" customWidth="1"/>
+    <col min="24" max="24" width="20.90625" customWidth="1"/>
+    <col min="25" max="25" width="18.453125" customWidth="1"/>
+    <col min="26" max="26" width="17.453125" customWidth="1"/>
+    <col min="27" max="27" width="17.6328125" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" customWidth="1"/>
+    <col min="29" max="29" width="21.1796875" customWidth="1"/>
+    <col min="30" max="30" width="16.81640625" customWidth="1"/>
+    <col min="31" max="31" width="16.7265625" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="33" max="33" width="18.54296875" customWidth="1"/>
+    <col min="34" max="34" width="18.81640625" customWidth="1"/>
+    <col min="35" max="35" width="17.6328125" customWidth="1"/>
+    <col min="36" max="36" width="22.08984375" customWidth="1"/>
+    <col min="37" max="37" width="20.26953125" customWidth="1"/>
+    <col min="38" max="38" width="13.1796875" customWidth="1"/>
+    <col min="39" max="39" width="15" customWidth="1"/>
+    <col min="40" max="40" width="13.54296875" customWidth="1"/>
+    <col min="41" max="41" width="12.36328125" customWidth="1"/>
+    <col min="42" max="42" width="14.54296875" customWidth="1"/>
+    <col min="43" max="43" width="13" customWidth="1"/>
+    <col min="44" max="44" width="11.7265625" customWidth="1"/>
+    <col min="45" max="45" width="16" customWidth="1"/>
+    <col min="46" max="46" width="13.26953125" customWidth="1"/>
+    <col min="47" max="47" width="13.36328125" customWidth="1"/>
+    <col min="48" max="48" width="16.6328125" customWidth="1"/>
+    <col min="49" max="49" width="22.453125" customWidth="1"/>
+    <col min="50" max="50" width="22.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/database.xlsx
+++ b/documentation/database.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\production\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C308012-2D3F-4DAC-9FB0-92AD49D9EEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DE404C-A06C-45A1-B2B1-08329A961A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="2" r:id="rId1"/>
     <sheet name="owner" sheetId="1" r:id="rId2"/>
-    <sheet name="user" sheetId="3" r:id="rId3"/>
+    <sheet name="firm" sheetId="4" r:id="rId3"/>
+    <sheet name="user" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="128">
   <si>
     <t>own_id</t>
   </si>
@@ -282,6 +283,135 @@
   </si>
   <si>
     <t>user_adhaar_back_img_id</t>
+  </si>
+  <si>
+    <t>firm_id</t>
+  </si>
+  <si>
+    <t>firm_add_date</t>
+  </si>
+  <si>
+    <t>firm_own_id</t>
+  </si>
+  <si>
+    <t>firm_name</t>
+  </si>
+  <si>
+    <t>firm_shop_name</t>
+  </si>
+  <si>
+    <t>firm_reg_no</t>
+  </si>
+  <si>
+    <t>firm_desc</t>
+  </si>
+  <si>
+    <t>firm_address</t>
+  </si>
+  <si>
+    <t>firm_city</t>
+  </si>
+  <si>
+    <t>firm_pincode</t>
+  </si>
+  <si>
+    <t>firm_phone_no</t>
+  </si>
+  <si>
+    <t>firm_email_id</t>
+  </si>
+  <si>
+    <t>firm_website</t>
+  </si>
+  <si>
+    <t>firm_type</t>
+  </si>
+  <si>
+    <t>firm_owner</t>
+  </si>
+  <si>
+    <t>firm_other_info</t>
+  </si>
+  <si>
+    <t>firm_geo_latitude</t>
+  </si>
+  <si>
+    <t>firm_geo_longitude</t>
+  </si>
+  <si>
+    <t>firm_whatsapp_link</t>
+  </si>
+  <si>
+    <t>firm_facebook_link</t>
+  </si>
+  <si>
+    <t>firm_insta_link</t>
+  </si>
+  <si>
+    <t>firm_smtp_server</t>
+  </si>
+  <si>
+    <t>firm_smtp_port</t>
+  </si>
+  <si>
+    <t>firm_smtp_email</t>
+  </si>
+  <si>
+    <t>firm_smtp_pass</t>
+  </si>
+  <si>
+    <t>firm_bank_name</t>
+  </si>
+  <si>
+    <t>firm_bank_branch</t>
+  </si>
+  <si>
+    <t>firm_acc_holder</t>
+  </si>
+  <si>
+    <t>firm_acc_type</t>
+  </si>
+  <si>
+    <t>firm_ifsc_code</t>
+  </si>
+  <si>
+    <t>firm_pay_declaration</t>
+  </si>
+  <si>
+    <t>firm_api_key</t>
+  </si>
+  <si>
+    <t>firm_start_date</t>
+  </si>
+  <si>
+    <t>firm_balance</t>
+  </si>
+  <si>
+    <t>firm_balance_type</t>
+  </si>
+  <si>
+    <t>firm_gstin_no</t>
+  </si>
+  <si>
+    <t>firm_pan_no</t>
+  </si>
+  <si>
+    <t>firm_form_head</t>
+  </si>
+  <si>
+    <t>firm_form_footer</t>
+  </si>
+  <si>
+    <t>firm_own_sign</t>
+  </si>
+  <si>
+    <t>firm_left_logo_id</t>
+  </si>
+  <si>
+    <t>firm_right_logo_id</t>
+  </si>
+  <si>
+    <t>firm_qr_logo_id</t>
   </si>
 </sst>
 </file>
@@ -834,11 +964,200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB71349-F7E3-4138-B2B5-D44031B5D34D}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="14.08984375" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="17.36328125" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="16.90625" customWidth="1"/>
+    <col min="21" max="21" width="14.6328125" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" customWidth="1"/>
+    <col min="23" max="23" width="17.36328125" customWidth="1"/>
+    <col min="24" max="24" width="14.453125" customWidth="1"/>
+    <col min="25" max="25" width="15.90625" customWidth="1"/>
+    <col min="26" max="26" width="15.54296875" customWidth="1"/>
+    <col min="27" max="27" width="15.90625" customWidth="1"/>
+    <col min="28" max="28" width="14.7265625" customWidth="1"/>
+    <col min="29" max="29" width="14.6328125" customWidth="1"/>
+    <col min="30" max="30" width="14" customWidth="1"/>
+    <col min="31" max="31" width="17.90625" customWidth="1"/>
+    <col min="32" max="32" width="14.1796875" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="17.90625" customWidth="1"/>
+    <col min="35" max="35" width="17.54296875" customWidth="1"/>
+    <col min="36" max="36" width="15.08984375" customWidth="1"/>
+    <col min="37" max="37" width="13.54296875" customWidth="1"/>
+    <col min="38" max="38" width="15.54296875" customWidth="1"/>
+    <col min="39" max="39" width="19.1796875" customWidth="1"/>
+    <col min="40" max="40" width="14.26953125" customWidth="1"/>
+    <col min="41" max="41" width="14.08984375" customWidth="1"/>
+    <col min="42" max="42" width="16.1796875" customWidth="1"/>
+    <col min="43" max="43" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2B6CC1-653C-459D-AC0B-7E8FCCF26223}">
   <dimension ref="A1:AX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection sqref="A1:AX1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -850,7 +1169,7 @@
     <col min="7" max="7" width="17.36328125" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
     <col min="11" max="11" width="18.1796875" customWidth="1"/>
     <col min="12" max="12" width="15.7265625" customWidth="1"/>
     <col min="14" max="14" width="19.81640625" customWidth="1"/>

--- a/documentation/database.xlsx
+++ b/documentation/database.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\production\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DE404C-A06C-45A1-B2B1-08329A961A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AEFA13-33AE-4368-AE78-FBA74DEF35F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="2" r:id="rId1"/>
     <sheet name="owner" sheetId="1" r:id="rId2"/>
     <sheet name="firm" sheetId="4" r:id="rId3"/>
     <sheet name="user" sheetId="3" r:id="rId4"/>
+    <sheet name="account" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>own_id</t>
   </si>
@@ -412,6 +413,69 @@
   </si>
   <si>
     <t>firm_qr_logo_id</t>
+  </si>
+  <si>
+    <t>acc_id</t>
+  </si>
+  <si>
+    <t>acc_add_date</t>
+  </si>
+  <si>
+    <t>acc_own_id</t>
+  </si>
+  <si>
+    <t>acc_firm_id</t>
+  </si>
+  <si>
+    <t>acc_name</t>
+  </si>
+  <si>
+    <t>acc_desc</t>
+  </si>
+  <si>
+    <t>acc_pre_acc</t>
+  </si>
+  <si>
+    <t>acc_bank_no</t>
+  </si>
+  <si>
+    <t>acc_branch_name</t>
+  </si>
+  <si>
+    <t>acc_opening_date</t>
+  </si>
+  <si>
+    <t>acc_country</t>
+  </si>
+  <si>
+    <t>acc_state</t>
+  </si>
+  <si>
+    <t>acc_city</t>
+  </si>
+  <si>
+    <t>acc_pincode</t>
+  </si>
+  <si>
+    <t>acc_ifsc_code</t>
+  </si>
+  <si>
+    <t>acc_bsr_no</t>
+  </si>
+  <si>
+    <t>acc_cash_balance</t>
+  </si>
+  <si>
+    <t>acc_balance_type</t>
+  </si>
+  <si>
+    <t>acc_other_info</t>
+  </si>
+  <si>
+    <t>acc_pan_no</t>
+  </si>
+  <si>
+    <t>acc_address</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB71349-F7E3-4138-B2B5-D44031B5D34D}">
   <dimension ref="A1:AQ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+    <sheetView topLeftCell="AO1" workbookViewId="0">
       <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
@@ -1366,4 +1430,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B68476-4EFE-4486-81D2-9D55AF85017E}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5:S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="16.90625" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" customWidth="1"/>
+    <col min="19" max="19" width="18.36328125" customWidth="1"/>
+    <col min="20" max="20" width="15.54296875" customWidth="1"/>
+    <col min="21" max="21" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>